--- a/script_master_data/DED-GLOBAL_CID_Adopcion IA_v1a.xlsx
+++ b/script_master_data/DED-GLOBAL_CID_Adopcion IA_v1a.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="2461" documentId="13_ncr:1_{CC2F7265-7341-4AB8-8837-BA192D3EEE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0B49FAD-D1C7-4E36-ABE3-29DA50EF705E}"/>
+  <xr:revisionPtr revIDLastSave="2466" documentId="13_ncr:1_{CC2F7265-7341-4AB8-8837-BA192D3EEE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADCF1799-B7DE-4AAD-B3E8-280CE383A212}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AdopcionIA" sheetId="1" r:id="rId1"/>
@@ -29,8 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -5992,7 +5990,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6082,7 +6080,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -6190,7 +6188,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6266,7 +6264,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6282,7 +6280,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!BB48</c:f>
+              <c:f>Reporte!$BB$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6303,7 +6301,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C53</c:f>
+              <c:f>Reporte!$C$49:$C$53</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -6326,7 +6324,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!BB49:BB53</c:f>
+              <c:f>Reporte!$BB$49:$BB$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6359,7 +6357,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!BC48</c:f>
+              <c:f>Reporte!$BC$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6380,7 +6378,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C53</c:f>
+              <c:f>Reporte!$C$49:$C$53</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -6403,7 +6401,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!BC49:BC53</c:f>
+              <c:f>Reporte!$BC$49:$BC$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6436,7 +6434,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!BD48</c:f>
+              <c:f>Reporte!$BD$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6457,7 +6455,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C53</c:f>
+              <c:f>Reporte!$C$49:$C$53</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -6480,7 +6478,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!BD49:BD53</c:f>
+              <c:f>Reporte!$BD$49:$BD$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6513,7 +6511,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!BE48</c:f>
+              <c:f>Reporte!$BE$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6534,7 +6532,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C53</c:f>
+              <c:f>Reporte!$C$49:$C$53</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -6557,7 +6555,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!BE49:BE53</c:f>
+              <c:f>Reporte!$BE$49:$BE$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6606,7 +6604,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!BA48</c:f>
+              <c:f>Reporte!$BA$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6655,7 +6653,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -6687,7 +6685,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C53</c:f>
+              <c:f>Reporte!$C$49:$C$53</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -6710,7 +6708,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!BA49:BA53</c:f>
+              <c:f>Reporte!$BA$49:$BA$53</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6744,7 +6742,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!BF48</c:f>
+              <c:f>Reporte!$BF$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6793,7 +6791,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -6825,7 +6823,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C53</c:f>
+              <c:f>Reporte!$C$49:$C$53</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -6848,7 +6846,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!BF49:BF53</c:f>
+              <c:f>Reporte!$BF$49:$BF$53</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6931,7 +6929,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054800904"/>
@@ -6990,7 +6988,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054798856"/>
@@ -7032,7 +7030,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2040453639"/>
@@ -7092,7 +7090,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7122,7 +7120,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7198,7 +7196,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7214,7 +7212,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!BJ48</c:f>
+              <c:f>Reporte!$BJ$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7235,7 +7233,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C53</c:f>
+              <c:f>Reporte!$C$49:$C$53</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -7258,7 +7256,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!BJ49:BJ53</c:f>
+              <c:f>Reporte!$BJ$49:$BJ$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -7291,7 +7289,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!BK48</c:f>
+              <c:f>Reporte!$BK$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7312,7 +7310,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C53</c:f>
+              <c:f>Reporte!$C$49:$C$53</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -7335,7 +7333,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!AU49:AU53</c:f>
+              <c:f>Reporte!$AU$49:$AU$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -7368,7 +7366,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!BL48</c:f>
+              <c:f>Reporte!$BL$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7389,7 +7387,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C53</c:f>
+              <c:f>Reporte!$C$49:$C$53</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -7412,7 +7410,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!BL49:BL53</c:f>
+              <c:f>Reporte!$BL$49:$BL$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -7445,7 +7443,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!BM48</c:f>
+              <c:f>Reporte!$BM$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7466,7 +7464,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C53</c:f>
+              <c:f>Reporte!$C$49:$C$53</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -7489,7 +7487,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!BM49:BM53</c:f>
+              <c:f>Reporte!$BM$49:$BM$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -7538,7 +7536,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!BI48</c:f>
+              <c:f>Reporte!$BI$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7587,7 +7585,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -7619,7 +7617,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C53</c:f>
+              <c:f>Reporte!$C$49:$C$53</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -7642,7 +7640,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!BI49:BI53</c:f>
+              <c:f>Reporte!$BI$49:$BI$53</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -7676,7 +7674,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!BN48</c:f>
+              <c:f>Reporte!$BN$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7725,7 +7723,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -7757,7 +7755,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C53</c:f>
+              <c:f>Reporte!$C$49:$C$53</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -7780,7 +7778,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!BN49:BN53</c:f>
+              <c:f>Reporte!$BN$49:$BN$53</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -7863,7 +7861,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054800904"/>
@@ -7922,7 +7920,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054798856"/>
@@ -7964,7 +7962,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2040453639"/>
@@ -8024,7 +8022,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8054,7 +8052,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8130,7 +8128,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8314,7 +8312,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -8454,7 +8452,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8484,7 +8482,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8560,7 +8558,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8831,7 +8829,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -8981,7 +8979,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="776388104"/>
@@ -9063,7 +9061,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9095,7 +9093,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="776385544"/>
@@ -9160,7 +9158,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9192,7 +9190,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="114118151"/>
@@ -9252,7 +9250,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9282,7 +9280,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9358,7 +9356,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9374,7 +9372,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!V48</c:f>
+              <c:f>Reporte!$V$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9395,7 +9393,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C53</c:f>
+              <c:f>Reporte!$C$49:$C$53</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -9418,7 +9416,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!V49:V53</c:f>
+              <c:f>Reporte!$V$49:$V$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -9451,7 +9449,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!W48</c:f>
+              <c:f>Reporte!$W$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9472,7 +9470,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C53</c:f>
+              <c:f>Reporte!$C$49:$C$53</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -9495,7 +9493,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!W49:W53</c:f>
+              <c:f>Reporte!$W$49:$W$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -9528,7 +9526,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!X48</c:f>
+              <c:f>Reporte!$X$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9549,7 +9547,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C53</c:f>
+              <c:f>Reporte!$C$49:$C$53</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -9572,7 +9570,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!X49:X53</c:f>
+              <c:f>Reporte!$X$49:$X$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -9605,7 +9603,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!Y48</c:f>
+              <c:f>Reporte!$Y$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9626,7 +9624,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C53</c:f>
+              <c:f>Reporte!$C$49:$C$53</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -9649,7 +9647,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!Y49:Y53</c:f>
+              <c:f>Reporte!$Y$49:$Y$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -9698,7 +9696,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!U48</c:f>
+              <c:f>Reporte!$U$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9747,7 +9745,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -9779,7 +9777,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C53</c:f>
+              <c:f>Reporte!$C$49:$C$53</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -9802,7 +9800,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!U49:U53</c:f>
+              <c:f>Reporte!$U$49:$U$53</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -9836,7 +9834,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!Z48</c:f>
+              <c:f>Reporte!$Z$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9885,7 +9883,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -9917,7 +9915,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C53</c:f>
+              <c:f>Reporte!$C$49:$C$53</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -9940,7 +9938,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!Z49:Z53</c:f>
+              <c:f>Reporte!$Z$49:$Z$53</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -10023,7 +10021,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054800904"/>
@@ -10082,7 +10080,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054798856"/>
@@ -10124,7 +10122,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2040453639"/>
@@ -10184,7 +10182,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10214,7 +10212,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10290,7 +10288,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10306,7 +10304,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!N48</c:f>
+              <c:f>Reporte!$N$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10327,7 +10325,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C53</c:f>
+              <c:f>Reporte!$C$49:$C$53</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -10350,7 +10348,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!N49:N53</c:f>
+              <c:f>Reporte!$N$49:$N$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -10383,7 +10381,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!O48</c:f>
+              <c:f>Reporte!$O$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10404,7 +10402,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C53</c:f>
+              <c:f>Reporte!$C$49:$C$53</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -10427,7 +10425,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!O49:O53</c:f>
+              <c:f>Reporte!$O$49:$O$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -10460,7 +10458,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!P48</c:f>
+              <c:f>Reporte!$P$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10481,7 +10479,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C53</c:f>
+              <c:f>Reporte!$C$49:$C$53</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -10504,7 +10502,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!P49:P53</c:f>
+              <c:f>Reporte!$P$49:$P$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -10537,7 +10535,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!Q48</c:f>
+              <c:f>Reporte!$Q$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10558,7 +10556,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C53</c:f>
+              <c:f>Reporte!$C$49:$C$53</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -10581,7 +10579,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!Q49:Q53</c:f>
+              <c:f>Reporte!$Q$49:$Q$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -10630,7 +10628,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!M48</c:f>
+              <c:f>Reporte!$M$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10679,7 +10677,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -10711,7 +10709,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C53</c:f>
+              <c:f>Reporte!$C$49:$C$53</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -10734,7 +10732,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!M49:M53</c:f>
+              <c:f>Reporte!$M$49:$M$53</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -10768,7 +10766,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!R48</c:f>
+              <c:f>Reporte!$R$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10817,7 +10815,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -10849,7 +10847,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C53</c:f>
+              <c:f>Reporte!$C$49:$C$53</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -10872,7 +10870,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!R49:R53</c:f>
+              <c:f>Reporte!$R$49:$R$53</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -10955,7 +10953,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1171074056"/>
@@ -11014,7 +11012,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1171072008"/>
@@ -11056,7 +11054,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2097866760"/>
@@ -11116,7 +11114,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11146,7 +11144,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11222,7 +11220,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11238,7 +11236,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!G48</c:f>
+              <c:f>Reporte!$G$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11259,7 +11257,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C53</c:f>
+              <c:f>Reporte!$C$49:$C$53</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -11282,7 +11280,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!G49:G53</c:f>
+              <c:f>Reporte!$G$49:$G$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -11315,7 +11313,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!H48</c:f>
+              <c:f>Reporte!$H$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11336,7 +11334,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C53</c:f>
+              <c:f>Reporte!$C$49:$C$53</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -11359,7 +11357,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!H49:H53</c:f>
+              <c:f>Reporte!$H$49:$H$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -11392,7 +11390,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!I48</c:f>
+              <c:f>Reporte!$I$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11413,7 +11411,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C53</c:f>
+              <c:f>Reporte!$C$49:$C$53</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -11436,7 +11434,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!I49:I53</c:f>
+              <c:f>Reporte!$I$49:$I$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -11469,7 +11467,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!J48</c:f>
+              <c:f>Reporte!$J$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11490,7 +11488,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C53</c:f>
+              <c:f>Reporte!$C$49:$C$53</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -11513,7 +11511,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!J49:J53</c:f>
+              <c:f>Reporte!$J$49:$J$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -11562,7 +11560,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!F48</c:f>
+              <c:f>Reporte!$F$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11610,7 +11608,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -11642,7 +11640,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C53</c:f>
+              <c:f>Reporte!$C$49:$C$53</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -11665,7 +11663,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!F49:F53</c:f>
+              <c:f>Reporte!$F$49:$F$53</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -11748,7 +11746,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1171074056"/>
@@ -11807,7 +11805,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1171072008"/>
@@ -11849,7 +11847,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2097866760"/>
@@ -11909,7 +11907,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11939,7 +11937,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12015,7 +12013,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12031,7 +12029,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!AD48</c:f>
+              <c:f>Reporte!$AD$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12052,7 +12050,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C53</c:f>
+              <c:f>Reporte!$C$49:$C$53</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -12075,7 +12073,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!AD49:AD53</c:f>
+              <c:f>Reporte!$AD$49:$AD$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -12108,7 +12106,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!AE48</c:f>
+              <c:f>Reporte!$AE$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12129,7 +12127,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C53</c:f>
+              <c:f>Reporte!$C$49:$C$53</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -12152,7 +12150,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!AE49:AE53</c:f>
+              <c:f>Reporte!$AE$49:$AE$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -12185,7 +12183,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!AF48</c:f>
+              <c:f>Reporte!$AF$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12206,7 +12204,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C53</c:f>
+              <c:f>Reporte!$C$49:$C$53</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -12229,7 +12227,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!AF49:AF53</c:f>
+              <c:f>Reporte!$AF$49:$AF$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -12262,7 +12260,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!AG48</c:f>
+              <c:f>Reporte!$AG$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12283,7 +12281,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C53</c:f>
+              <c:f>Reporte!$C$49:$C$53</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -12306,7 +12304,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!AG49:AG53</c:f>
+              <c:f>Reporte!$AG$49:$AG$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -12355,7 +12353,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!AC48</c:f>
+              <c:f>Reporte!$AC$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12404,7 +12402,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -12436,7 +12434,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C53</c:f>
+              <c:f>Reporte!$C$49:$C$53</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -12459,7 +12457,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!AC49:AC53</c:f>
+              <c:f>Reporte!$AC$49:$AC$53</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -12493,7 +12491,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!AH48</c:f>
+              <c:f>Reporte!$AH$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12542,7 +12540,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -12574,7 +12572,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C53</c:f>
+              <c:f>Reporte!$C$49:$C$53</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -12597,7 +12595,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!AH49:AH53</c:f>
+              <c:f>Reporte!$AH$49:$AH$53</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -12680,7 +12678,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054800904"/>
@@ -12739,7 +12737,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054798856"/>
@@ -12781,7 +12779,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2040453639"/>
@@ -12841,7 +12839,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -12871,7 +12869,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12947,7 +12945,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12963,7 +12961,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!AL48</c:f>
+              <c:f>Reporte!$AL$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12984,7 +12982,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C53</c:f>
+              <c:f>Reporte!$C$49:$C$53</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -13007,7 +13005,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!AL49:AL53</c:f>
+              <c:f>Reporte!$AL$49:$AL$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -13040,7 +13038,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!AM48</c:f>
+              <c:f>Reporte!$AM$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13061,7 +13059,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C53</c:f>
+              <c:f>Reporte!$C$49:$C$53</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -13084,7 +13082,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!AM49:AM53</c:f>
+              <c:f>Reporte!$AM$49:$AM$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -13117,7 +13115,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!AN48</c:f>
+              <c:f>Reporte!$AN$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13138,7 +13136,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C53</c:f>
+              <c:f>Reporte!$C$49:$C$53</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -13161,7 +13159,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!AN49:AN53</c:f>
+              <c:f>Reporte!$AN$49:$AN$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -13194,7 +13192,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!AO48</c:f>
+              <c:f>Reporte!$AO$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13215,7 +13213,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C53</c:f>
+              <c:f>Reporte!$C$49:$C$53</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -13238,7 +13236,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!AO49:AO53</c:f>
+              <c:f>Reporte!$AO$49:$AO$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -13287,7 +13285,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!AK48</c:f>
+              <c:f>Reporte!$AK$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13336,7 +13334,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -13368,7 +13366,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C53</c:f>
+              <c:f>Reporte!$C$49:$C$53</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -13391,7 +13389,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!AK49:AK53</c:f>
+              <c:f>Reporte!$AK$49:$AK$53</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -13425,7 +13423,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!AP48</c:f>
+              <c:f>Reporte!$AP$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13474,7 +13472,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -13506,7 +13504,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C53</c:f>
+              <c:f>Reporte!$C$49:$C$53</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -13529,7 +13527,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!AP49:AP53</c:f>
+              <c:f>Reporte!$AP$49:$AP$53</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -13612,7 +13610,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054800904"/>
@@ -13671,7 +13669,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054798856"/>
@@ -13713,7 +13711,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2040453639"/>
@@ -13773,7 +13771,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -13803,7 +13801,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13879,7 +13877,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -13895,7 +13893,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!AT48</c:f>
+              <c:f>Reporte!$AT$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13916,7 +13914,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C53</c:f>
+              <c:f>Reporte!$C$49:$C$53</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -13939,7 +13937,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!AT49:AT53</c:f>
+              <c:f>Reporte!$AT$49:$AT$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -13972,7 +13970,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!AU48</c:f>
+              <c:f>Reporte!$AU$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13993,7 +13991,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C53</c:f>
+              <c:f>Reporte!$C$49:$C$53</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -14016,7 +14014,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!AU49:AU53</c:f>
+              <c:f>Reporte!$AU$49:$AU$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -14049,7 +14047,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!AV48</c:f>
+              <c:f>Reporte!$AV$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14070,7 +14068,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C53</c:f>
+              <c:f>Reporte!$C$49:$C$53</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -14093,7 +14091,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!AV49:AV53</c:f>
+              <c:f>Reporte!$AV$49:$AV$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -14126,7 +14124,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!AW48</c:f>
+              <c:f>Reporte!$AW$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14147,7 +14145,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C53</c:f>
+              <c:f>Reporte!$C$49:$C$53</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -14170,7 +14168,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!AW49:AW53</c:f>
+              <c:f>Reporte!$AW$49:$AW$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -14219,7 +14217,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!AS48</c:f>
+              <c:f>Reporte!$AS$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14268,7 +14266,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -14300,7 +14298,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C53</c:f>
+              <c:f>Reporte!$C$49:$C$53</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -14323,7 +14321,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!AS49:AS53</c:f>
+              <c:f>Reporte!$AS$49:$AS$53</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -14357,7 +14355,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Reporte!AX48</c:f>
+              <c:f>Reporte!$AX$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14406,7 +14404,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -14438,7 +14436,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C49:C53</c:f>
+              <c:f>Reporte!$C$49:$C$53</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -14461,7 +14459,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!AX49:AX53</c:f>
+              <c:f>Reporte!$AX$49:$AX$53</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -14544,7 +14542,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054800904"/>
@@ -14603,7 +14601,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054798856"/>
@@ -14645,7 +14643,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2040453639"/>
@@ -14705,7 +14703,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -14735,7 +14733,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -21475,41 +21473,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AR440"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="E431" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="B305" sqref="B305:B440"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="62.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" style="1" customWidth="1"/>
-    <col min="7" max="11" width="9.140625" style="1" customWidth="1"/>
-    <col min="12" max="41" width="9.140625" style="1"/>
-    <col min="42" max="42" width="94.42578125" style="1" customWidth="1"/>
-    <col min="43" max="43" width="29.140625" style="1" customWidth="1"/>
-    <col min="44" max="44" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="2.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="62.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.453125" style="1" customWidth="1"/>
+    <col min="7" max="11" width="9.1796875" style="1" customWidth="1"/>
+    <col min="12" max="41" width="9.1796875" style="1"/>
+    <col min="42" max="42" width="94.453125" style="1" customWidth="1"/>
+    <col min="43" max="43" width="29.1796875" style="1" customWidth="1"/>
+    <col min="44" max="44" width="14.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:44" ht="18.75">
+    <row r="2" spans="2:44" ht="18.5">
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="124"/>
     </row>
-    <row r="3" spans="2:44" ht="15">
+    <row r="3" spans="2:44" ht="14.5">
       <c r="B3" s="88" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:44" s="2" customFormat="1" ht="15.75">
+    <row r="4" spans="2:44" s="2" customFormat="1" ht="15.5">
       <c r="G4" s="3"/>
       <c r="H4" s="4" t="s">
         <v>2</v>
@@ -21560,7 +21558,7 @@
       <c r="AN4" s="5"/>
       <c r="AO4" s="6"/>
     </row>
-    <row r="5" spans="2:44" ht="40.5">
+    <row r="5" spans="2:44" ht="39">
       <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
@@ -55011,9 +55009,9 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -55093,15 +55091,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{409AF7FE-97E2-49A2-85B3-28ECC4D7AD22}">
-  <dimension ref="C3:L20"/>
+  <dimension ref="C3:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="3" max="12" width="37.28515625" customWidth="1"/>
+    <col min="3" max="12" width="37.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:12">
@@ -55111,13 +55109,13 @@
       <c r="F3" s="167"/>
       <c r="G3" s="167"/>
     </row>
-    <row r="5" spans="3:12" ht="18.75">
+    <row r="5" spans="3:12" ht="18.5">
       <c r="J5" s="168" t="s">
         <v>1050</v>
       </c>
       <c r="K5" s="169"/>
     </row>
-    <row r="6" spans="3:12" ht="18.75">
+    <row r="6" spans="3:12" ht="18.5">
       <c r="C6" s="33" t="s">
         <v>1051</v>
       </c>
@@ -55149,7 +55147,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="7" spans="3:12" ht="15">
+    <row r="7" spans="3:12">
       <c r="C7" s="170" t="s">
         <v>1061</v>
       </c>
@@ -55163,7 +55161,7 @@
       <c r="K7" s="85"/>
       <c r="L7" s="86"/>
     </row>
-    <row r="8" spans="3:12" ht="15">
+    <row r="8" spans="3:12">
       <c r="C8" s="171"/>
       <c r="D8" s="85"/>
       <c r="E8" s="85"/>
@@ -55175,7 +55173,7 @@
       <c r="K8" s="85"/>
       <c r="L8" s="36"/>
     </row>
-    <row r="9" spans="3:12" ht="15">
+    <row r="9" spans="3:12">
       <c r="C9" s="171"/>
       <c r="D9" s="85"/>
       <c r="E9" s="85"/>
@@ -55187,7 +55185,7 @@
       <c r="K9" s="85"/>
       <c r="L9" s="87"/>
     </row>
-    <row r="10" spans="3:12" ht="15">
+    <row r="10" spans="3:12">
       <c r="C10" s="171"/>
       <c r="D10" s="85"/>
       <c r="E10" s="85"/>
@@ -55199,7 +55197,7 @@
       <c r="K10" s="85"/>
       <c r="L10" s="18"/>
     </row>
-    <row r="11" spans="3:12" ht="15">
+    <row r="11" spans="3:12">
       <c r="C11" s="171"/>
       <c r="D11" s="85"/>
       <c r="E11" s="85"/>
@@ -55211,7 +55209,7 @@
       <c r="K11" s="85"/>
       <c r="L11" s="18"/>
     </row>
-    <row r="12" spans="3:12" ht="15">
+    <row r="12" spans="3:12">
       <c r="C12" s="171"/>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
@@ -55223,7 +55221,7 @@
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
     </row>
-    <row r="13" spans="3:12" ht="15">
+    <row r="13" spans="3:12">
       <c r="C13" s="171"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
@@ -55235,7 +55233,7 @@
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
     </row>
-    <row r="14" spans="3:12" ht="15">
+    <row r="14" spans="3:12">
       <c r="C14" s="171"/>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
@@ -55247,7 +55245,7 @@
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
     </row>
-    <row r="15" spans="3:12" ht="15">
+    <row r="15" spans="3:12">
       <c r="C15" s="171"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
@@ -55259,7 +55257,7 @@
       <c r="K15" s="18"/>
       <c r="L15" s="18"/>
     </row>
-    <row r="16" spans="3:12" ht="15">
+    <row r="16" spans="3:12">
       <c r="C16" s="171"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
@@ -55271,7 +55269,7 @@
       <c r="K16" s="18"/>
       <c r="L16" s="18"/>
     </row>
-    <row r="17" spans="3:12" ht="15">
+    <row r="17" spans="3:12">
       <c r="C17" s="171"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
@@ -55283,7 +55281,7 @@
       <c r="K17" s="18"/>
       <c r="L17" s="18"/>
     </row>
-    <row r="18" spans="3:12" ht="15">
+    <row r="18" spans="3:12">
       <c r="C18" s="171"/>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
@@ -55295,7 +55293,7 @@
       <c r="K18" s="18"/>
       <c r="L18" s="18"/>
     </row>
-    <row r="19" spans="3:12" ht="15">
+    <row r="19" spans="3:12">
       <c r="C19" s="171"/>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
@@ -55307,7 +55305,6 @@
       <c r="K19" s="18"/>
       <c r="L19" s="18"/>
     </row>
-    <row r="20" spans="3:12" ht="15"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="E3:G3"/>
@@ -55322,87 +55319,87 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED98BEE-9FDE-48A4-86A8-C4DE755C63D7}">
   <dimension ref="B1:BN79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
-    <col min="2" max="2" width="3.140625" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
-    <col min="9" max="10" width="13.85546875" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.28515625" customWidth="1"/>
-    <col min="23" max="23" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.7109375" customWidth="1"/>
-    <col min="26" max="26" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.5703125" customWidth="1"/>
-    <col min="31" max="31" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.7109375" customWidth="1"/>
-    <col min="34" max="34" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.85546875" customWidth="1"/>
-    <col min="39" max="39" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.7109375" customWidth="1"/>
-    <col min="42" max="42" width="19.42578125" customWidth="1"/>
-    <col min="43" max="43" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="12.5703125" customWidth="1"/>
-    <col min="47" max="47" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="13.7109375" customWidth="1"/>
-    <col min="50" max="50" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="13.28515625" customWidth="1"/>
-    <col min="55" max="55" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="13.7109375" customWidth="1"/>
-    <col min="58" max="58" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="10.140625" customWidth="1"/>
-    <col min="63" max="63" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="13.7109375" customWidth="1"/>
-    <col min="66" max="66" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" customWidth="1"/>
+    <col min="2" max="2" width="3.1796875" customWidth="1"/>
+    <col min="3" max="3" width="30.1796875" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" customWidth="1"/>
+    <col min="6" max="6" width="22.453125" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" customWidth="1"/>
+    <col min="8" max="8" width="13.26953125" customWidth="1"/>
+    <col min="9" max="10" width="13.81640625" customWidth="1"/>
+    <col min="11" max="11" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.26953125" customWidth="1"/>
+    <col min="15" max="15" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7265625" customWidth="1"/>
+    <col min="18" max="18" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.26953125" customWidth="1"/>
+    <col min="23" max="23" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.7265625" customWidth="1"/>
+    <col min="26" max="26" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.54296875" customWidth="1"/>
+    <col min="31" max="31" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.7265625" customWidth="1"/>
+    <col min="34" max="34" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.81640625" customWidth="1"/>
+    <col min="39" max="39" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.7265625" customWidth="1"/>
+    <col min="42" max="42" width="19.453125" customWidth="1"/>
+    <col min="43" max="43" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.54296875" customWidth="1"/>
+    <col min="47" max="47" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.7265625" customWidth="1"/>
+    <col min="50" max="50" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="13.26953125" customWidth="1"/>
+    <col min="55" max="55" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="13.7265625" customWidth="1"/>
+    <col min="58" max="58" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="10.1796875" customWidth="1"/>
+    <col min="63" max="63" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="13.7265625" customWidth="1"/>
+    <col min="66" max="66" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10"/>
-    <row r="2" spans="2:10" ht="23.25">
+    <row r="1" spans="2:10" ht="14.5"/>
+    <row r="2" spans="2:10" ht="23.5">
       <c r="B2" s="71" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="3" spans="2:10"/>
-    <row r="4" spans="2:10">
+    <row r="3" spans="2:10" ht="14.5"/>
+    <row r="4" spans="2:10" ht="14.5">
       <c r="C4" s="21" t="s">
         <v>1063</v>
       </c>
@@ -55411,10 +55408,10 @@
         <v>435</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" ht="14.5">
       <c r="C6" s="16"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" ht="14.5">
       <c r="C7" s="16"/>
       <c r="D7" s="19" t="s">
         <v>20</v>
@@ -55430,7 +55427,7 @@
       </c>
       <c r="H7" s="30"/>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" ht="14.5">
       <c r="C8" s="98" t="s">
         <v>1067</v>
       </c>
@@ -55451,17 +55448,17 @@
         <v>364</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="18.75">
+    <row r="10" spans="2:10" ht="18.5">
       <c r="C10" s="70" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" ht="14.5">
       <c r="C11" s="23" t="s">
         <v>1069</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" ht="14.5">
       <c r="C12" s="19" t="s">
         <v>1070</v>
       </c>
@@ -55483,7 +55480,7 @@
       <c r="I12" s="30"/>
       <c r="J12" s="30"/>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" ht="14.5">
       <c r="C13" s="17" t="s">
         <v>2</v>
       </c>
@@ -55508,7 +55505,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" ht="14.5">
       <c r="C14" s="17" t="s">
         <v>3</v>
       </c>
@@ -55533,7 +55530,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" ht="14.5">
       <c r="C15" s="17" t="s">
         <v>4</v>
       </c>
@@ -55558,7 +55555,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" ht="14.5">
       <c r="C16" s="17" t="s">
         <v>1076</v>
       </c>
@@ -55583,7 +55580,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="17" spans="3:10">
+    <row r="17" spans="3:10" ht="14.5">
       <c r="C17" s="17" t="s">
         <v>1077</v>
       </c>
@@ -55608,7 +55605,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="18" spans="3:10">
+    <row r="18" spans="3:10" ht="14.5">
       <c r="C18" s="17" t="s">
         <v>1078</v>
       </c>
@@ -55633,7 +55630,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="19" spans="3:10">
+    <row r="19" spans="3:10" ht="14.5">
       <c r="C19" s="31" t="s">
         <v>1079</v>
       </c>
@@ -55658,7 +55655,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="20" spans="3:10">
+    <row r="20" spans="3:10" ht="14.5">
       <c r="C20" s="80" t="s">
         <v>1080</v>
       </c>
@@ -55685,13 +55682,13 @@
       <c r="I20" s="16"/>
       <c r="J20" s="16"/>
     </row>
-    <row r="21" spans="3:10"/>
-    <row r="22" spans="3:10" ht="18.75">
+    <row r="21" spans="3:10" ht="14.5"/>
+    <row r="22" spans="3:10" ht="18.5">
       <c r="C22" s="70" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="23" spans="3:10">
+    <row r="23" spans="3:10" ht="14.5">
       <c r="C23" s="91" t="s">
         <v>1070</v>
       </c>
@@ -55709,7 +55706,7 @@
       <c r="I23" s="30"/>
       <c r="J23" s="30"/>
     </row>
-    <row r="24" spans="3:10">
+    <row r="24" spans="3:10" ht="14.5">
       <c r="C24" s="94" t="s">
         <v>2</v>
       </c>
@@ -55727,7 +55724,7 @@
       </c>
       <c r="G24" s="99"/>
     </row>
-    <row r="25" spans="3:10">
+    <row r="25" spans="3:10" ht="14.5">
       <c r="C25" s="94" t="s">
         <v>3</v>
       </c>
@@ -55745,7 +55742,7 @@
       </c>
       <c r="G25" s="99"/>
     </row>
-    <row r="26" spans="3:10">
+    <row r="26" spans="3:10" ht="14.5">
       <c r="C26" s="94" t="s">
         <v>4</v>
       </c>
@@ -55763,7 +55760,7 @@
       </c>
       <c r="G26" s="99"/>
     </row>
-    <row r="27" spans="3:10">
+    <row r="27" spans="3:10" ht="14.5">
       <c r="C27" s="94" t="s">
         <v>1076</v>
       </c>
@@ -55781,7 +55778,7 @@
       </c>
       <c r="G27" s="99"/>
     </row>
-    <row r="28" spans="3:10">
+    <row r="28" spans="3:10" ht="14.5">
       <c r="C28" s="94" t="s">
         <v>1077</v>
       </c>
@@ -55799,7 +55796,7 @@
       </c>
       <c r="G28" s="99"/>
     </row>
-    <row r="29" spans="3:10">
+    <row r="29" spans="3:10" ht="14.5">
       <c r="C29" s="94" t="s">
         <v>1078</v>
       </c>
@@ -55817,7 +55814,7 @@
       </c>
       <c r="G29" s="99"/>
     </row>
-    <row r="30" spans="3:10">
+    <row r="30" spans="3:10" ht="14.5">
       <c r="C30" s="96" t="s">
         <v>1079</v>
       </c>
@@ -55835,7 +55832,7 @@
       </c>
       <c r="G30" s="99"/>
     </row>
-    <row r="31" spans="3:10">
+    <row r="31" spans="3:10" ht="14.5">
       <c r="C31" s="80" t="s">
         <v>1085</v>
       </c>
@@ -55856,46 +55853,46 @@
       <c r="I31" s="16"/>
       <c r="J31" s="16"/>
     </row>
-    <row r="32" spans="3:10"/>
-    <row r="33" spans="2:66"/>
-    <row r="34" spans="2:66"/>
-    <row r="35" spans="2:66" ht="23.25">
+    <row r="32" spans="3:10" ht="14.5"/>
+    <row r="33" spans="2:66" ht="14.5"/>
+    <row r="34" spans="2:66" ht="14.5"/>
+    <row r="35" spans="2:66" ht="23.5">
       <c r="B35" s="71" t="s">
         <v>1086</v>
       </c>
     </row>
-    <row r="36" spans="2:66" ht="23.25">
+    <row r="36" spans="2:66" ht="23.5">
       <c r="B36" s="71"/>
     </row>
-    <row r="37" spans="2:66" ht="23.25">
+    <row r="37" spans="2:66" ht="23.5">
       <c r="B37" s="71"/>
     </row>
-    <row r="38" spans="2:66" ht="23.25">
+    <row r="38" spans="2:66" ht="23.5">
       <c r="B38" s="71"/>
     </row>
-    <row r="39" spans="2:66" ht="23.25">
+    <row r="39" spans="2:66" ht="23.5">
       <c r="B39" s="71"/>
     </row>
-    <row r="40" spans="2:66" ht="23.25">
+    <row r="40" spans="2:66" ht="23.5">
       <c r="B40" s="71"/>
     </row>
-    <row r="41" spans="2:66" ht="23.25">
+    <row r="41" spans="2:66" ht="23.5">
       <c r="B41" s="71"/>
     </row>
-    <row r="42" spans="2:66" ht="23.25">
+    <row r="42" spans="2:66" ht="23.5">
       <c r="B42" s="71"/>
     </row>
-    <row r="43" spans="2:66" ht="23.25">
+    <row r="43" spans="2:66" ht="23.5">
       <c r="B43" s="71"/>
     </row>
-    <row r="44" spans="2:66" ht="23.25">
+    <row r="44" spans="2:66" ht="23.5">
       <c r="B44" s="71"/>
     </row>
-    <row r="45" spans="2:66" ht="23.25">
+    <row r="45" spans="2:66" ht="23.5">
       <c r="B45" s="71"/>
     </row>
-    <row r="46" spans="2:66"/>
-    <row r="47" spans="2:66" ht="14.45" customHeight="1">
+    <row r="46" spans="2:66" ht="14.5"/>
+    <row r="47" spans="2:66" ht="14.5" customHeight="1">
       <c r="D47" s="181" t="s">
         <v>1087</v>
       </c>
@@ -55976,7 +55973,7 @@
       <c r="BM47" s="179"/>
       <c r="BN47" s="180"/>
     </row>
-    <row r="48" spans="2:66">
+    <row r="48" spans="2:66" ht="14.5">
       <c r="C48" s="19" t="s">
         <v>10</v>
       </c>
@@ -56170,7 +56167,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="49" spans="3:66">
+    <row r="49" spans="3:66" ht="14.5">
       <c r="C49" s="17" t="str" cm="1">
         <f t="array" ref="C49:C63">_xlfn.UNIQUE(AdopcionIA!$C$6:$C$177)</f>
         <v>SP83</v>
@@ -56428,7 +56425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:66">
+    <row r="50" spans="3:66" ht="14.5">
       <c r="C50" s="17" t="str">
         <v>SP91</v>
       </c>
@@ -56685,7 +56682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:66">
+    <row r="51" spans="3:66" ht="14.5">
       <c r="C51" s="17" t="str">
         <v>SP05</v>
       </c>
@@ -56942,7 +56939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:66">
+    <row r="52" spans="3:66" ht="14.5">
       <c r="C52" s="17" t="str">
         <v>SP84</v>
       </c>
@@ -57199,7 +57196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:66">
+    <row r="53" spans="3:66" ht="14.5">
       <c r="C53" s="17" t="str">
         <v>SP92</v>
       </c>
@@ -57456,7 +57453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:66">
+    <row r="54" spans="3:66" ht="14.5">
       <c r="C54" s="17" t="str">
         <v>SP06</v>
       </c>
@@ -57534,12 +57531,12 @@
         <v>SP85</v>
       </c>
     </row>
-    <row r="57" spans="3:66">
+    <row r="57" spans="3:66" ht="14.5">
       <c r="C57" s="16" t="str">
         <v>SP07</v>
       </c>
     </row>
-    <row r="58" spans="3:66">
+    <row r="58" spans="3:66" ht="14.5">
       <c r="C58" s="30" t="str">
         <v>SP86</v>
       </c>
@@ -57551,46 +57548,46 @@
       <c r="I58" s="30"/>
       <c r="J58" s="30"/>
     </row>
-    <row r="59" spans="3:66">
+    <row r="59" spans="3:66" ht="14.5">
       <c r="C59" s="16" t="str">
         <v>SP94</v>
       </c>
       <c r="F59" s="41"/>
       <c r="G59" s="41"/>
     </row>
-    <row r="60" spans="3:66">
+    <row r="60" spans="3:66" ht="14.5">
       <c r="C60" s="16" t="str">
         <v>SP08</v>
       </c>
       <c r="F60" s="41"/>
       <c r="G60" s="41"/>
     </row>
-    <row r="61" spans="3:66">
+    <row r="61" spans="3:66" ht="14.5">
       <c r="C61" s="16" t="str">
         <v>SP87</v>
       </c>
       <c r="F61" s="41"/>
       <c r="G61" s="41"/>
     </row>
-    <row r="62" spans="3:66">
+    <row r="62" spans="3:66" ht="14.5">
       <c r="C62" s="16" t="str">
         <v>SP95</v>
       </c>
       <c r="F62" s="41"/>
       <c r="G62" s="41"/>
     </row>
-    <row r="63" spans="3:66">
+    <row r="63" spans="3:66" ht="14.5">
       <c r="C63" s="16" t="str">
         <v>SP09</v>
       </c>
     </row>
-    <row r="64" spans="3:66">
+    <row r="64" spans="3:66" ht="14.5">
       <c r="C64" s="16"/>
     </row>
-    <row r="66" spans="3:10">
+    <row r="66" spans="3:10" ht="14.5">
       <c r="C66" s="16"/>
     </row>
-    <row r="67" spans="3:10">
+    <row r="67" spans="3:10" ht="14.5">
       <c r="C67" s="30"/>
       <c r="D67" s="30"/>
       <c r="E67" s="30"/>
@@ -57600,39 +57597,39 @@
       <c r="I67" s="30"/>
       <c r="J67" s="30"/>
     </row>
-    <row r="68" spans="3:10">
+    <row r="68" spans="3:10" ht="14.5">
       <c r="C68" s="16"/>
       <c r="F68" s="41"/>
       <c r="G68" s="41"/>
     </row>
-    <row r="69" spans="3:10">
+    <row r="69" spans="3:10" ht="14.5">
       <c r="C69" s="16"/>
       <c r="F69" s="41"/>
       <c r="G69" s="41"/>
     </row>
-    <row r="70" spans="3:10">
+    <row r="70" spans="3:10" ht="14.5">
       <c r="C70" s="16"/>
       <c r="F70" s="41"/>
       <c r="G70" s="41"/>
     </row>
-    <row r="71" spans="3:10">
+    <row r="71" spans="3:10" ht="14.5">
       <c r="C71" s="16"/>
       <c r="F71" s="41"/>
       <c r="G71" s="41"/>
     </row>
-    <row r="72" spans="3:10">
+    <row r="72" spans="3:10" ht="14.5">
       <c r="C72" s="16"/>
       <c r="F72" s="41"/>
       <c r="G72" s="41"/>
     </row>
-    <row r="73" spans="3:10">
+    <row r="73" spans="3:10" ht="14.5">
       <c r="C73" s="16"/>
     </row>
-    <row r="75" spans="3:10"/>
-    <row r="76" spans="3:10"/>
-    <row r="77" spans="3:10"/>
-    <row r="78" spans="3:10"/>
-    <row r="79" spans="3:10"/>
+    <row r="75" spans="3:10" ht="14.5"/>
+    <row r="76" spans="3:10" ht="14.5"/>
+    <row r="77" spans="3:10" ht="14.5"/>
+    <row r="78" spans="3:10" ht="14.5"/>
+    <row r="79" spans="3:10" ht="14.5"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="AQ47:AX47"/>
@@ -58039,10 +58036,10 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="112.28515625" customWidth="1"/>
+    <col min="2" max="2" width="112.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -58053,7 +58050,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="183">
+    <row r="2" spans="1:2" ht="174">
       <c r="A2" s="122">
         <v>45566</v>
       </c>
@@ -58061,7 +58058,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="198">
+    <row r="3" spans="1:2" ht="188.5">
       <c r="A3" s="122">
         <v>45573</v>
       </c>
@@ -58069,7 +58066,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="152.25">
+    <row r="4" spans="1:2" ht="145">
       <c r="A4" s="122">
         <v>45588</v>
       </c>
@@ -58077,7 +58074,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="152.25">
+    <row r="5" spans="1:2" ht="145">
       <c r="A5" s="122">
         <v>45602</v>
       </c>
@@ -58100,6 +58097,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c3e1b4bb-9124-477c-aa49-683b9a26b58f">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E080B9D539EE5249B0F7896E1534F47F" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="1a88378f58b9ad7590fd740332c19a90">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8c298b4c-1b69-4120-abb9-a44ffc4bda23" xmlns:ns3="c3e1b4bb-9124-477c-aa49-683b9a26b58f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="910b3ddf48a2c6cdf16d80fb4d738ee7" ns2:_="" ns3:_="">
     <xsd:import namespace="8c298b4c-1b69-4120-abb9-a44ffc4bda23"/>
@@ -58300,28 +58311,39 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c3e1b4bb-9124-477c-aa49-683b9a26b58f">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{890994BF-65F0-45C5-A04B-1A065C31A5EA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{890994BF-65F0-45C5-A04B-1A065C31A5EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E499D57B-E18F-44EC-A7A0-3EEA8962C223}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2FEBBB-B4B0-4147-BA7E-181AD49E4B6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c3e1b4bb-9124-477c-aa49-683b9a26b58f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2FEBBB-B4B0-4147-BA7E-181AD49E4B6A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E499D57B-E18F-44EC-A7A0-3EEA8962C223}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8c298b4c-1b69-4120-abb9-a44ffc4bda23"/>
+    <ds:schemaRef ds:uri="c3e1b4bb-9124-477c-aa49-683b9a26b58f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>